--- a/data/DietaryVars.xlsx
+++ b/data/DietaryVars.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyuchen/Documents/GitHub/ENAR-Risk-Factors-Analyses/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhihaochen/nyu/ENAR_2025/ENAR-Risk-Factors-Analyses/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3418B58A-5357-894C-8728-4728F31EB729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999642E0-73F5-E647-9C44-C2F7329D7E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15960" xr2:uid="{D5D029D8-0471-6344-AD87-EA55EA5357E3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="15960" activeTab="1" xr2:uid="{D5D029D8-0471-6344-AD87-EA55EA5357E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>DSDCOUNT - Total # of Dietary Supplements Taken</t>
   </si>
@@ -150,19 +151,76 @@
   </si>
   <si>
     <t>DSQTIODI - Iodine (mcg)</t>
+  </si>
+  <si>
+    <t>DR1TSODI - Sodium (mg)</t>
+  </si>
+  <si>
+    <t>DRQSDT2 - Low fat/Low cholesterol diet</t>
+  </si>
+  <si>
+    <t>DR1TTFAT - Total fat (gm)</t>
+  </si>
+  <si>
+    <t>DR1TSFAT - Total saturated fatty acids (gm)</t>
+  </si>
+  <si>
+    <t>DR1TMFAT - Total monounsaturated fatty acids (gm)</t>
+  </si>
+  <si>
+    <t>DR1TPFAT - Total polyunsaturated fatty acids (gm)</t>
+  </si>
+  <si>
+    <t>DR1TCHOL - Cholesterol (mg)</t>
+  </si>
+  <si>
+    <t>DR1TCARB - Carbohydrate (gm)</t>
+  </si>
+  <si>
+    <t>DR1TFIBE - Dietary fiber (gm)</t>
+  </si>
+  <si>
+    <t>DR1TPOTA - Potassium (mg)</t>
+  </si>
+  <si>
+    <t>DR1TMAGN - Magnesium (mg)</t>
+  </si>
+  <si>
+    <t>DR1TCALC - Calcium (mg)</t>
+  </si>
+  <si>
+    <t>DR1TPROT - Protein (gm)</t>
+  </si>
+  <si>
+    <t>DBQ095Z - Type of table salt used</t>
+  </si>
+  <si>
+    <t>DR1TPHOS - Phosphorus (mg)</t>
+  </si>
+  <si>
+    <t>DR1TVARA - Vitamin A, RAE (mcg)</t>
+  </si>
+  <si>
+    <t>DR1TVC - Vitamin C (mg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,8 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF2AA88-5044-874E-B7BB-9D3ED336EE6F}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
@@ -702,4 +761,204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED9E3E7-D232-F748-9470-BDDAA4C8A511}">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>